--- a/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>页码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>承担单位和推荐部门审核意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +133,98 @@
   </si>
   <si>
     <t>王旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwwzy@zzu.edu.cn</t>
+  </si>
+  <si>
+    <t>华建民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjm191@163.com</t>
+  </si>
+  <si>
+    <t>liuw@bjut.edu.cn</t>
+  </si>
+  <si>
+    <t>huiling@bupt.edu.cn</t>
+  </si>
+  <si>
+    <t>guoxp@mail.hust.edu.cn</t>
+  </si>
+  <si>
+    <t>yr@zju.edu.cn</t>
+  </si>
+  <si>
+    <t>xchwu@zju.edu.cn</t>
+  </si>
+  <si>
+    <t>袁瑢</t>
+  </si>
+  <si>
+    <t>jwgx@zzu.edu.cn</t>
+  </si>
+  <si>
+    <t>古新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王巍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwei@hznu.edu.cn</t>
+  </si>
+  <si>
+    <t>xhjiang@scut.edu.cn</t>
+  </si>
+  <si>
+    <t>karenjx@163.com</t>
+  </si>
+  <si>
+    <t>shxsh@ustb.edu.cn</t>
+  </si>
+  <si>
+    <t>尚新生</t>
+  </si>
+  <si>
+    <t>libinchen@mail.xjtu.edu.cn</t>
+  </si>
+  <si>
+    <t>陈立斌</t>
+  </si>
+  <si>
+    <t>029 82665410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担单位……审核意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话告知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件已收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑庆华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵广社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>029-82666882</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,12 +248,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,8 +274,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,274 +649,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13937109365</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13858050681</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13983121868</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13330203691</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>18858187525</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1">
+        <v>13588730725</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13060393393</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1">
+        <v>13630286561</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="1">
+        <v>13669196529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15652963198</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13701322717</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>13810749061</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="1">
+        <v>62332526</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18502205623</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18925120922</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13871091063</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>13937109365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>13858050681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>13983121868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>18858187525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>13060393393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>15652963198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>13701322717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>13810749061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>18502205623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>18925120922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>13871091063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -236,13 +241,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -370,7 +375,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0FFC8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -405,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,7 +445,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,25 +657,25 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -696,7 +701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="C3">
         <v>90</v>
       </c>
@@ -710,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="C4">
         <v>91</v>
       </c>
@@ -724,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="B5">
         <v>1</v>
       </c>
@@ -755,7 +760,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="B6">
         <v>1</v>
       </c>
@@ -786,7 +791,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
@@ -817,7 +825,10 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
@@ -848,7 +859,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="B9">
         <v>1</v>
       </c>
@@ -893,7 +904,7 @@
         <v>13669196529</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
@@ -923,7 +934,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1</v>
       </c>
@@ -953,7 +964,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12">
         <v>1</v>
       </c>
@@ -984,7 +998,10 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13">
         <v>1</v>
       </c>
@@ -1011,7 +1028,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14">
         <v>1</v>
       </c>
@@ -1038,7 +1058,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1065,7 +1085,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="C16">
         <v>103</v>
       </c>
@@ -1079,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5">
       <c r="C17">
         <v>104</v>
       </c>
@@ -1093,6 +1113,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -761,6 +761,9 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6">
         <v>1</v>
       </c>

--- a/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/科技部-创新方法项目/申报材料/正式文件提交/各校声明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25823"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,13 +241,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -375,7 +375,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F0FFC8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -410,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,7 +445,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,28 +654,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E2" sqref="E2:P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -701,7 +704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C3">
         <v>90</v>
       </c>
@@ -715,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4">
         <v>91</v>
       </c>
@@ -729,7 +732,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -760,7 +766,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -794,7 +800,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -828,7 +834,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -862,7 +868,10 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9">
         <v>1</v>
       </c>
@@ -907,7 +916,7 @@
         <v>13669196529</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -937,7 +946,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -967,7 +976,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1001,7 +1010,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1031,7 +1040,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1061,7 +1070,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15">
         <v>1</v>
       </c>
@@ -1088,7 +1100,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16">
         <v>103</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>104</v>
       </c>
@@ -1116,7 +1128,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
